--- a/public/demo/clue_demo.xlsx
+++ b/public/demo/clue_demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>单位</t>
     <rPh sb="0" eb="1">
@@ -158,13 +158,305 @@
   <si>
     <t>办结期限</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公检法等机关移送</t>
+  </si>
+  <si>
+    <t>李四</t>
+    <rPh sb="0" eb="1">
+      <t>li'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <rPh sb="0" eb="1">
+      <t>bai'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科长</t>
+    <rPh sb="0" eb="1">
+      <t>ke'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科级</t>
+    <rPh sb="0" eb="1">
+      <t>ke'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体排查</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ti'pai'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级交办</t>
+    <rPh sb="0" eb="1">
+      <t>shang'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移交上级</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <rPh sb="0" eb="1">
+      <t>dai'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重违纪</t>
+    <rPh sb="0" eb="1">
+      <t>yan'zhong'wei'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予以查办</t>
+    <rPh sb="0" eb="1">
+      <t>yu'yi'cha'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机事件证据确凿</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ji'shi'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'ju'que'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪律审查中发现</t>
+  </si>
+  <si>
+    <t>20180312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使投资</t>
+    <rPh sb="0" eb="1">
+      <t>tian'shi'tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某部长</t>
+    <rPh sb="0" eb="1">
+      <t>mou'mou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部级</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直批转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在办</t>
+    <rPh sb="0" eb="1">
+      <t>zai'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人作风问题</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ren'zuo'feng'wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望汲取教训</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'qu'jiao'xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望改之</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作风问题严肃处理</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'feng'wen'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'su'chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督检查中发现</t>
+  </si>
+  <si>
+    <t>赵六</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料部</t>
+    <rPh sb="0" eb="1">
+      <t>cai'liao'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某科长</t>
+    <rPh sb="0" eb="1">
+      <t>mou'mou'ke'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质监部门</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'jian'bu'men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部长</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直批转入</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'pi'zhuan'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移交司法</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信访举报</t>
+  </si>
+  <si>
+    <t>20180404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安检部门</t>
+    <rPh sb="0" eb="1">
+      <t>an'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监察科科长</t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha'ke</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪律问题</t>
+    <rPh sb="0" eb="1">
+      <t>ji'lv'wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严办严处</t>
+    <rPh sb="0" eb="1">
+      <t>yan'ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作风问题严肃处理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +467,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -222,12 +522,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,13 +825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -573,6 +875,262 @@
       </c>
       <c r="Q1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43187</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43221</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5">
+        <v>43188</v>
+      </c>
+      <c r="H3" s="5">
+        <v>43240</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43188</v>
+      </c>
+      <c r="H4" s="5">
+        <v>43246</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43191</v>
+      </c>
+      <c r="H5" s="5">
+        <v>43252</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43191</v>
+      </c>
+      <c r="H6" s="5">
+        <v>43286</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/public/demo/clue_demo.xlsx
+++ b/public/demo/clue_demo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwujun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwujun/httproot/clue/public/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>单位</t>
     <rPh sb="0" eb="1">
@@ -181,20 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科长</t>
-    <rPh sb="0" eb="1">
-      <t>ke'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科级</t>
-    <rPh sb="0" eb="1">
-      <t>ke'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>集体排查</t>
     <rPh sb="0" eb="1">
       <t>ji'ti'pai'cha</t>
@@ -274,26 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某某部长</t>
-    <rPh sb="0" eb="1">
-      <t>mou'mou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部级</t>
-    <rPh sb="0" eb="1">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直批转入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,13 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某某科长</t>
-    <rPh sb="0" eb="1">
-      <t>mou'mou'ke'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>质监部门</t>
     <rPh sb="0" eb="1">
       <t>zhi'jian'bu'men</t>
@@ -450,6 +409,54 @@
   </si>
   <si>
     <t>作风问题严肃处理</t>
+  </si>
+  <si>
+    <t>县处级</t>
+    <rPh sb="0" eb="1">
+      <t>xian'chu'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厅局级</t>
+    <rPh sb="0" eb="1">
+      <t>ting'ju'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡科级</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'ke'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某厅长</t>
+    <rPh sb="0" eb="1">
+      <t>mou'mou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ting'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处长</t>
+    <rPh sb="0" eb="1">
+      <t>chu'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某处长</t>
+    <rPh sb="0" eb="1">
+      <t>mou'mou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -891,10 +898,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5">
         <v>43187</v>
@@ -903,51 +910,51 @@
         <v>43221</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5">
         <v>43188</v>
@@ -956,51 +963,51 @@
         <v>43240</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1">
         <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G4" s="5">
         <v>43188</v>
@@ -1009,45 +1016,45 @@
         <v>43246</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1">
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5">
         <v>43191</v>
@@ -1056,51 +1063,51 @@
         <v>43252</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1">
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5">
         <v>43191</v>
@@ -1109,28 +1116,28 @@
         <v>43286</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1">
         <v>9</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/public/demo/clue_demo.xlsx
+++ b/public/demo/clue_demo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>单位</t>
     <rPh sb="0" eb="1">
@@ -129,13 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去向</t>
-    <rPh sb="0" eb="1">
-      <t>qu'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线索状态</t>
     <rPh sb="0" eb="1">
       <t>xian'suo</t>
@@ -198,16 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移交上级</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待办</t>
     <rPh sb="0" eb="1">
       <t>dai'ban</t>
@@ -350,16 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移交司法</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>si'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已办</t>
     <rPh sb="0" eb="1">
       <t>yi'ban</t>
@@ -456,6 +429,81 @@
     <rPh sb="2" eb="3">
       <t>chu'zhang</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承办部门</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ban'bu'men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>干部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <charset val="128"/>
+      </rPr>
+      <t>督室</t>
+    </r>
+  </si>
+  <si>
+    <t>其他部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <charset val="128"/>
+      </rPr>
+      <t>十四室</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>干部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <charset val="128"/>
+      </rPr>
+      <t>督室</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -486,6 +534,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -529,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -537,6 +598,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -816,7 +879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -836,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -854,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
@@ -866,10 +931,10 @@
         <v>12</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>4</v>
@@ -886,22 +951,22 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="5">
         <v>43187</v>
@@ -910,51 +975,51 @@
         <v>43221</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="5">
         <v>43188</v>
@@ -963,51 +1028,51 @@
         <v>43240</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
+      <c r="L3" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5">
         <v>43188</v>
@@ -1016,45 +1081,45 @@
         <v>43246</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K4" s="1">
         <v>7</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
+      <c r="L4" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5" s="5">
         <v>43191</v>
@@ -1063,51 +1128,51 @@
         <v>43252</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1">
         <v>8</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
+      <c r="L5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5">
         <v>43191</v>
@@ -1116,28 +1181,28 @@
         <v>43286</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1">
         <v>9</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/public/demo/clue_demo.xlsx
+++ b/public/demo/clue_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwujun/httproot/clue/public/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwujun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>单位</t>
     <rPh sb="0" eb="1">
@@ -39,16 +39,6 @@
     <t>编号</t>
     <rPh sb="0" eb="1">
       <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线索来源</t>
-    <rPh sb="0" eb="1">
-      <t>xian'suo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lai'yuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +494,36 @@
       </rPr>
       <t>督室</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线索来源I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线索来源II</t>
+    <rPh sb="0" eb="1">
+      <t>xian'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督检查中发现</t>
+    <rPh sb="0" eb="1">
+      <t>jian'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa'xian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -600,6 +620,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -877,332 +898,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="1"/>
-    <col min="9" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="22.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="20.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="10" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="22.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43187</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43221</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I3" s="5">
+        <v>43240</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I4" s="5">
+        <v>43246</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5">
+        <v>43191</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43252</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5">
+        <v>43191</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43286</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43187</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43221</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="5">
-        <v>43188</v>
-      </c>
-      <c r="H3" s="5">
-        <v>43240</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5">
-        <v>43188</v>
-      </c>
-      <c r="H4" s="5">
-        <v>43246</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1">
-        <v>7</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="5">
-        <v>43191</v>
-      </c>
-      <c r="H5" s="5">
-        <v>43252</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1">
-        <v>8</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="5">
-        <v>43191</v>
-      </c>
-      <c r="H6" s="5">
-        <v>43286</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/public/demo/clue_demo.xlsx
+++ b/public/demo/clue_demo.xlsx
@@ -497,32 +497,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线索来源I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线索来源II</t>
+    <t>监督检查中发现</t>
+    <rPh sb="0" eb="1">
+      <t>jian'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线索来源I级</t>
+    <rPh sb="5" eb="6">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线索来源II级</t>
     <rPh sb="0" eb="1">
       <t>xian'suo</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>lai'yuan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监督检查中发现</t>
-    <rPh sb="0" eb="1">
-      <t>jian'du</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jian'cha</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fa'xian</t>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -901,11 +907,12 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
@@ -919,10 +926,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>13</v>
@@ -975,7 +982,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -1087,7 +1094,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -1193,7 +1200,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
